--- a/biology/Botanique/Sabicea_cinerea/Sabicea_cinerea.xlsx
+++ b/biology/Botanique/Sabicea_cinerea/Sabicea_cinerea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sabicea cinerea est une espèce de liane d'Amérique du sud, appartenant à la famille des Rubiaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sabicea cinerea est une liane ligneuse à tiges arachnoïdes-pubescentes.
 Les feuilles mesurent 5-11,5 × 2-6 cm, et sont adaxialement peu arachnoïde-pubescentes, abaxialement densément arachnoïde ou laineuse.
@@ -519,10 +533,10 @@
 Les pétioles sont longs de 5-10 mm, et les stipules de 5-9 mm.
 Les inflorescences sont glomérulées, sessiles, avec le limbe du calice long de 5-11 mm, profondément lobé.
 La corolle est extérieurement pileuses à hirsutes, le tube long de 10-17 mm,  et les lobes longs de 4-6 mm.
-Les fruits mesurent 5-6 mm de diamètre[3].
+Les fruits mesurent 5-6 mm de diamètre.
 En 1953, Lemée en propose la description suivante de Sabicea cinerea :
 « S. cinerea Aubl. Liane à petits rameaux très tomenteux-arachnoïdes ; feuilles de 0,07-0,14 sur 0,03-0,06, à pétiole court canaliculé, lancéolées ou elliptiques ou oblongues aiguës ou acuminées, à base en coin ou aiguë, à dessus parsemé de poils arachnoides et dessous très tomenteux et d'un blanc crême, avec 11-12 paires de neryûres, stipules de 6 mm., étroitement ovales ; inflorescences solitaires sessiles càpitées 5-7-flores très tomenteuses sur les bractées et les calices ; fleurs 5-mères avec calice à segments linéaires-lancéolés, corolle blanche, densément et longuement poilue en dehors, à tube de 12-1.5 min , et lones de 6 mm ., ovaire tomenteux à 5 loges ; baie rouge. - Maroni : camp, Godebert (R. Benoist) herbier Lemée : Cayenne-Maringoins . »
-— Albert Lemée, 1953.[4]</t>
+— Albert Lemée, 1953.</t>
         </is>
       </c>
     </row>
@@ -550,9 +564,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sabicea cinerea est présent au Venezuela (Sucre), au Suriname, en Guyane[3] et au Brésil.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sabicea cinerea est présent au Venezuela (Sucre), au Suriname, en Guyane et au Brésil.
 </t>
         </is>
       </c>
@@ -581,12 +597,14 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Sabicea cinerea pousse au Venezuela dans les forêts humides de plaine, attendues dans la zone de flore à 200-300 m d'altitude, et presque jusqu'au niveau de la mer au Suriname et en Guyane[3] et dans les végétations hygrophiles des savanes côttières de Guyane[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sabicea cinerea pousse au Venezuela dans les forêts humides de plaine, attendues dans la zone de flore à 200-300 m d'altitude, et presque jusqu'au niveau de la mer au Suriname et en Guyane et dans les végétations hygrophiles des savanes côttières de Guyane.
 On a étudié plusieurs aspects de Sabicea cinerea :
-sa pollinisation[6],[7],
-les métabolites secondaires de ses champignons endophytes[8],[9].</t>
+sa pollinisation
+les métabolites secondaires de ses champignons endophytes,.</t>
         </is>
       </c>
     </row>
@@ -614,9 +632,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet a a proposé le protologue suivant de Sabicea cinerea[10] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet a a proposé le protologue suivant de Sabicea cinerea : 
 « 1. SABICEA (cinerea) caule volubili ; foliis ovatis, acutis, ſubtùs albidis ; tubo floris prælongo.
 Frutex caules plurimos, ramoſos, volubiles, cylindraceos, villoſos, polline albo conſperſos, ſuprà frutices ſparſos, è radice emittens. Folia oppoſita, petiolata, ſupernè viridia, villoſa, infernè incana, &amp; tomentoſa, ovata, acuta, integerrima. Stipula ſubrotunda, acuta, intra baſim petiolorum, ab utroque latere pofita. Flores quatuor, quinque vel ampliùs, ſubſeſſiles, axillares. Quilibet flos intra dua folia alba, oblonga, acuta. Corolla alba, extus villoſa.
 Floret &amp; fructum. ſert omni anni tempore.
